--- a/Real Estate/Prologis.xlsx
+++ b/Real Estate/Prologis.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Real Estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DCCF00-3939-1641-BB41-6BF91C2036AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39483A7-0D68-F14D-957B-2099B484E9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22800" yWindow="500" windowWidth="28340" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1017,6 +1017,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,12 +1034,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2420,13 +2420,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>174.54</v>
+    <v>138.86000000000001</v>
     <v>98.03</v>
-    <v>1.0130999999999999</v>
-    <v>0.14000000000000001</v>
-    <v>1.1409999999999999E-3</v>
-    <v>0</v>
-    <v>0</v>
+    <v>1.0146999999999999</v>
+    <v>1</v>
+    <v>8.1930000000000006E-3</v>
+    <v>-0.55000000000000004</v>
+    <v>-4.4689999999999999E-3</v>
     <v>USD</v>
     <v>Prologis, Inc. is a fully integrated real estate company. The Company operates through two segments: Real Estate Operations and Strategic Capital. The Real Estate Operations segment represents the ownership and development of logistics properties. The Strategic Capital segment represents the management of unconsolidated co-investment ventures and other ventures. The Company operates, manages and measures the operating performance of its properties on an owned and managed (O&amp;M) basis. Its O&amp;M portfolio includes its consolidated properties, as well as properties owned by its unconsolidated co-investment ventures. The Company manages its portfolio and provides real estate services, including leasing, property management, development, acquisitions and dispositions. The Company owns, manages and develops logistics facilities in approximately 19 countries across four continents. The Company has principal office locations in Amsterdam, Denver, Mexico City, Shanghai, Singapore and Tokyo.</v>
     <v>2466</v>
@@ -2434,25 +2434,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>PIER 1 BAY 1, SAN FRANCISCO, CA, 94111 US</v>
-    <v>124.66</v>
+    <v>124.38</v>
     <v>Residential &amp; Commercial REIT</v>
     <v>Stock</v>
-    <v>45028.993269721876</v>
+    <v>45065.995098066407</v>
     <v>0</v>
-    <v>122.68</v>
-    <v>113408845376</v>
+    <v>122.24</v>
+    <v>113641700000</v>
     <v>PROLOGIS, INC.</v>
     <v>PROLOGIS, INC.</v>
-    <v>124.38</v>
-    <v>28.1995</v>
-    <v>122.67</v>
-    <v>122.81</v>
-    <v>122.81</v>
-    <v>923449600</v>
+    <v>123.27</v>
+    <v>37.171700000000001</v>
+    <v>122.06</v>
+    <v>123.06</v>
+    <v>122.51</v>
+    <v>923466000</v>
     <v>PLD</v>
     <v>PROLOGIS, INC. (XNYS:PLD)</v>
-    <v>2576293</v>
-    <v>3389767</v>
+    <v>2135519</v>
+    <v>2667928</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -3040,10 +3040,10 @@
   <dimension ref="A1:AK118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="Y72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE98" sqref="AE98"/>
+      <selection pane="bottomRight" activeCell="AD92" sqref="AD92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4697,15 +4697,15 @@
       </c>
       <c r="AI16" s="30">
         <f>AJ101/AB3</f>
-        <v>18.984715880229512</v>
+        <v>19.023695898616801</v>
       </c>
       <c r="AJ16" s="30">
         <f>AJ101/AB28</f>
-        <v>33.70392235982758</v>
+        <v>33.773124317950007</v>
       </c>
       <c r="AK16" s="31">
         <f>AJ101/AB106</f>
-        <v>27.483525802206749</v>
+        <v>27.539955845609885</v>
       </c>
     </row>
     <row r="17" spans="1:34" ht="19" x14ac:dyDescent="0.25">
@@ -10575,10 +10575,10 @@
       <c r="AB83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI83" s="60" t="s">
+      <c r="AI83" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="AJ83" s="61"/>
+      <c r="AJ83" s="63"/>
     </row>
     <row r="84" spans="1:36" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -10665,10 +10665,10 @@
       <c r="AB84" s="1">
         <v>109030000</v>
       </c>
-      <c r="AI84" s="62" t="s">
+      <c r="AI84" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="AJ84" s="63"/>
+      <c r="AJ84" s="65"/>
     </row>
     <row r="85" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -11526,10 +11526,10 @@
       <c r="AB93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AI93" s="62" t="s">
+      <c r="AI93" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="AJ93" s="63"/>
+      <c r="AJ93" s="65"/>
     </row>
     <row r="94" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -11713,7 +11713,7 @@
       </c>
       <c r="AJ95" s="39" cm="1">
         <f t="array" ref="AJ95">_FV(A1,"Beta")</f>
-        <v>1.0130999999999999</v>
+        <v>1.0146999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -11898,7 +11898,7 @@
       </c>
       <c r="AJ97" s="36">
         <f>(AJ94)+((AJ95)*(AJ96-AJ94))</f>
-        <v>8.4563954999999996E-2</v>
+        <v>8.4632835000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -11986,10 +11986,10 @@
       <c r="AB98" s="1">
         <v>-2571267000</v>
       </c>
-      <c r="AI98" s="62" t="s">
+      <c r="AI98" s="64" t="s">
         <v>139</v>
       </c>
-      <c r="AJ98" s="63"/>
+      <c r="AJ98" s="65"/>
     </row>
     <row r="99" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="AJ100" s="34">
         <f>AJ99/AJ103</f>
-        <v>0.17774165488401553</v>
+        <v>0.17744208175784917</v>
       </c>
     </row>
     <row r="101" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12267,7 +12267,7 @@
       </c>
       <c r="AJ101" s="40" cm="1">
         <f t="array" ref="AJ101">_FV(A1,"Market cap",TRUE)</f>
-        <v>113408845376</v>
+        <v>113641700000</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12360,7 +12360,7 @@
       </c>
       <c r="AJ102" s="34">
         <f>AJ101/AJ103</f>
-        <v>0.8222583451159845</v>
+        <v>0.82255791824215085</v>
       </c>
     </row>
     <row r="103" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="AJ103" s="41">
         <f>AJ99+AJ101</f>
-        <v>137923617376</v>
+        <v>138156472000</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -12541,10 +12541,10 @@
       <c r="AB104" s="11">
         <v>278483000</v>
       </c>
-      <c r="AI104" s="62" t="s">
+      <c r="AI104" s="64" t="s">
         <v>145</v>
       </c>
-      <c r="AJ104" s="63"/>
+      <c r="AJ104" s="65"/>
     </row>
     <row r="105" spans="1:36" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="AJ105" s="26">
         <f>(AJ100*AJ92)+(AJ102*AJ97)</f>
-        <v>7.1572179339165765E-2</v>
+        <v>7.165073400385491E-2</v>
       </c>
     </row>
     <row r="106" spans="1:36" ht="19" x14ac:dyDescent="0.25">
@@ -12820,7 +12820,7 @@
       <c r="AF107" s="43"/>
       <c r="AG107" s="46">
         <f>AG106*(1+AJ107)/(AJ108-AJ107)</f>
-        <v>145829238745.2692</v>
+        <v>145583678472.82928</v>
       </c>
       <c r="AH107" s="47" t="s">
         <v>148</v>
@@ -12851,7 +12851,7 @@
       </c>
       <c r="AG108" s="46">
         <f>AG107+AG106</f>
-        <v>152455175779.16061</v>
+        <v>152209615506.7207</v>
       </c>
       <c r="AH108" s="47" t="s">
         <v>144</v>
@@ -12861,14 +12861,14 @@
       </c>
       <c r="AJ108" s="51">
         <f>AJ105</f>
-        <v>7.1572179339165765E-2</v>
+        <v>7.165073400385491E-2</v>
       </c>
     </row>
     <row r="109" spans="1:36" ht="19" x14ac:dyDescent="0.25">
-      <c r="AC109" s="64" t="s">
+      <c r="AC109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AD109" s="65"/>
+      <c r="AD109" s="61"/>
     </row>
     <row r="110" spans="1:36" ht="20" x14ac:dyDescent="0.25">
       <c r="AC110" s="52" t="s">
@@ -12876,7 +12876,7 @@
       </c>
       <c r="AD110" s="40">
         <f>NPV(AJ108,AC108,AD108,AE108,AF108,AG108)</f>
-        <v>125506711893.99562</v>
+        <v>125290166034.0459</v>
       </c>
     </row>
     <row r="111" spans="1:36" ht="20" x14ac:dyDescent="0.25">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="AD113" s="40">
         <f>AD110+AD111-AD112</f>
-        <v>101270422893.99562</v>
+        <v>101053877034.0459</v>
       </c>
     </row>
     <row r="114" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="AD115" s="55">
         <f>AD113/AD114</f>
-        <v>88.798975081198066</v>
+        <v>88.609096833708776</v>
       </c>
     </row>
     <row r="116" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12930,7 +12930,7 @@
       </c>
       <c r="AD116" s="56" cm="1">
         <f t="array" ref="AD116">_FV(A1,"Price")</f>
-        <v>122.81</v>
+        <v>123.06</v>
       </c>
     </row>
     <row r="117" spans="29:30" ht="20" x14ac:dyDescent="0.25">
@@ -12939,7 +12939,7 @@
       </c>
       <c r="AD117" s="58">
         <f>AD115/AD116-1</f>
-        <v>-0.27694019150559346</v>
+        <v>-0.27995208163734131</v>
       </c>
     </row>
     <row r="118" spans="29:30" ht="20" x14ac:dyDescent="0.25">
